--- a/file/SST-3311-TVBox.xlsx
+++ b/file/SST-3311-TVBox.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.6_SmartLife/SmartShopping/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF512FC-5CAA-184B-8586-1162F3362BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41544596-C890-7A4A-A826-A9512F55824D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="1680" windowWidth="41280" windowHeight="16080" xr2:uid="{05C37E18-337C-584F-ABEC-C0DEFA508031}"/>
+    <workbookView xWindow="25700" yWindow="8660" windowWidth="41280" windowHeight="16080" xr2:uid="{05C37E18-337C-584F-ABEC-C0DEFA508031}"/>
   </bookViews>
   <sheets>
-    <sheet name="眼部按摩器" sheetId="1" r:id="rId1"/>
+    <sheet name="TVBox" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,6 +511,148 @@
   </si>
   <si>
     <t>卡拉OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊爵電視盒 G700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口碑電視盒 N1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中央處理器：64位元四核 CPU Mali-400MP2 GPU &lt;br&gt;
+記憶體：2GB RAM+16GB Flash &lt;br&gt;
+畫質：4K x 2K畫質 &lt;br&gt;
+作業系統; Android 7.1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中央處理器：64位元四核 CPU Mali-400MP2 GPU &lt;br&gt;
+記憶體：1GB RAM+8GB Flash &lt;br&gt;
+畫質：4K 質 &lt;br&gt;
+作業系統; Android 5.1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BX-1801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/SST-3311-OVO-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/SST-3311-OVO-02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ovotv.com/zh-tw/product/details/G700tv36</t>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘋果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mi.com/tw/mi-box-s/</t>
+  </si>
+  <si>
+    <t>小米盒子S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中央處理器：64位元, 4核 CPU  3+2核 GPU &lt;br&gt;
+記憶體：2GB DDR3 RAM+8GB eMMC Flash &lt;br&gt;
+畫質：4KHDR 畫質 &lt;br&gt;
+作業系統; Android 8.1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/SST-3311-Mi-01.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央處理器：64 位元架構的 A10X Fusion 晶片&lt;br&gt;
+記憶體：32GB RAM+ 64B Flash &lt;br&gt;
+畫質：4K HDR &lt;br&gt;
+作業系統;  tvOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/SST-3311-AppleTV-01.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.apple.com/tw/tv/</t>
+  </si>
+  <si>
+    <t>Apple TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中央處理器：64位元四核 ARM Cortex-A53處理器, 8核CPU&lt;br&gt;
+記憶體：4+64GB &lt;br&gt;
+畫質：6K 高清 HDR畫質 &lt;br&gt;
+Ai 智能語音系統
+作業系統; Android </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中央處理器：64位元四核 ARM Cortex-A53處理器, 8核CPU&lt;br&gt;
+記憶體：2+32GB &lt;br&gt;
+畫質：6K 高清 HDR畫質 &lt;br&gt;
+作業系統; Android </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中央處理器：64位元四核 ARM Cortex-A53處理器, 8核CPU&lt;br&gt;
+記憶體：4GB DDR3+32GB eMMC &lt;br&gt;
+畫質：6K 高清 HDR畫質 &lt;br&gt;
+作業系統; Android </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中央處理器：64位元四核 ARM Cortex-A53處理器, 4核CPU&lt;br&gt;
+記憶體：1GB DDR3+16GB eMMC &lt;br&gt;
+畫質：6K 高清 HDR畫質 &lt;br&gt;
+作業系統; Android </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +734,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,6 +749,9 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -923,13 +1068,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E611C559-1D93-DF46-B92B-5D7DB0C2BDE2}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1126,7 +1271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="80">
+    <row r="7" spans="1:13" ht="120">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1139,6 +1284,9 @@
       <c r="D7" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="E7" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="F7" s="4">
         <v>4380</v>
       </c>
@@ -1155,7 +1303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="100">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1168,6 +1316,9 @@
       <c r="D8" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="E8" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="F8" s="4">
         <v>3680</v>
       </c>
@@ -1178,7 +1329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="100">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1191,6 +1342,9 @@
       <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="E9" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="F9" s="4">
         <v>3780</v>
       </c>
@@ -1201,7 +1355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="100">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1213,6 +1367,9 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>72</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="F10" s="4">
         <v>2980</v>
@@ -1320,6 +1477,119 @@
       </c>
       <c r="I14" s="1" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="100">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2290</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="100">
+      <c r="A16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1780</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="120">
+      <c r="A17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1895</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="100">
+      <c r="A18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4990</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/file/SST-3311-TVBox.xlsx
+++ b/file/SST-3311-TVBox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.6_SmartLife/SmartShopping/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41544596-C890-7A4A-A826-A9512F55824D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4E2BE7-F2F2-FE48-8CE3-481D21C65E73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25700" yWindow="8660" windowWidth="41280" windowHeight="16080" xr2:uid="{05C37E18-337C-584F-ABEC-C0DEFA508031}"/>
+    <workbookView xWindow="8880" yWindow="5520" windowWidth="41280" windowHeight="16080" xr2:uid="{05C37E18-337C-584F-ABEC-C0DEFA508031}"/>
   </bookViews>
   <sheets>
     <sheet name="TVBox" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="175">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,9 +82,6 @@
     <t>04</t>
   </si>
   <si>
-    <t>05</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
@@ -168,17 +165,6 @@
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>SB02+SW02+MC01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/SST-3311-Rocktek-05.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.rocktek.com.tw/products/rocktek-ktv</t>
@@ -345,36 +331,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">RockTek SB02 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="楷體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>雷爵藍牙無線聲霸卡拉OK組合</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="楷體-繁 標準體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>含SW02獨立重低音與MC01無線麥克風</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">EVBOX </t>
     </r>
     <r>
@@ -506,14 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周董麥克風</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡拉OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -653,6 +601,281 @@
 記憶體：1GB DDR3+16GB eMMC &lt;br&gt;
 畫質：6K 高清 HDR畫質 &lt;br&gt;
 作業系統; Android </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RockTek 雷爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT-SB02, RT-SW02, MC01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTV聲霸家庭劇院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/SST-3312-KTV-01.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aibo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LA101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB家庭劇院 單件式雙聲道立體聲喇叭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/SST-3312-KTV-21.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.aibo.com.tw/m/405-1110-54967,c10077.php?Lang=zh-tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sansui 山水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSB-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍芽3D立體聲家庭劇院聲霸音響</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/SST-3312-KTV-31.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sansui-taiwan.com/%E5%AE%B6%E5%BA%AD%E5%8A%87%E9%99%A2/%E8%97%8D%E8%8A%BD3D%E7%AB%8B%E9%AB%94%E8%81%B2%E5%AE%B6%E5%BA%AD%E5%8A%87%E9%99%A2%E8%81%B2%E9%9C%B8.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yamaha 山葉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YSP 2700 SoundBar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭劇院無線聲霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/SST-3312-KTV-41.jpg</t>
+  </si>
+  <si>
+    <t>https://tw.yamaha.com/zh/products/audio_visual/sound_bar/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATS-4080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單件式無線家庭劇院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/SST-3312-KTV-46.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tw.yamaha.com/zh/products/audio_visual/sound_bar/index.html</t>
+  </si>
+  <si>
+    <t>051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redmi 小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Redmi </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電視條形音箱 音響喇叭 影音劇院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/SST-3312-KTV-51.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mi.com/tvspeaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samsung 三星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HW-Q950T/ZW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1.4聲道 藍牙無線後環繞聲霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/SST-3312-KTV-61.jpg</t>
+  </si>
+  <si>
+    <t>https://www.samsung.com/tw/audio-devices/soundbar/9-1-4-ch-soundbar-dolby-atmos-black-hw-q950t-zw/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>Dike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSB310-LITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單件式重低音環繞家庭劇院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/SST-3312-KTV-71.jpg</t>
+  </si>
+  <si>
+    <t>http://www.dike.com.tw/%E5%8A%87%E9%99%A2%E6%8F%9A%E8%81%B2%E5%99%A8/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>Philips 飛利浦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fidelio B8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單件式環繞音響</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/SST-3312-KTV-81.jpg</t>
+  </si>
+  <si>
+    <t>https://www.philips.com.hk/c-p/B8_12/fidelio-skyquake-soundbar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>BOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bose Solo 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電視音響系統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bose.tw/zh_tw/products/speakers/home_theater/bose-solo-5-tv-sound-system.html#v=solo_5_black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Sounderbar 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>093</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sounderbar 700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bar Studio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍芽4.2杜比音效聲霸喇叭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/SST-3312-KTV-101.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jbl.com.tw/soundbars/JBL+BAR+STUDIO.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/SST-3312-KTV-91.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/SST-3312-KTV-92.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/SST-3312-KTV-93.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SounderBar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,7 +957,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -752,6 +975,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1068,13 +1294,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E611C559-1D93-DF46-B92B-5D7DB0C2BDE2}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1099,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1111,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -1123,13 +1349,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="80">
@@ -1137,31 +1363,31 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="4">
         <v>4680</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="100">
@@ -1169,25 +1395,25 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F3" s="4">
         <v>3999</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="80">
@@ -1195,25 +1421,25 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F4" s="4">
         <v>2990</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="80">
@@ -1221,28 +1447,28 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F5" s="4">
         <v>4390</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="120">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1250,57 +1476,54 @@
         <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="F6" s="4">
-        <v>14800</v>
+        <v>4380</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="120">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="100">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F7" s="4">
-        <v>4380</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>49</v>
+        <v>3680</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="100">
@@ -1308,295 +1531,598 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F8" s="4">
-        <v>3680</v>
+        <v>3780</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="100">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F9" s="4">
-        <v>3780</v>
+        <v>2980</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="100">
       <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4380</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="60">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2980</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="100">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F11" s="4">
-        <v>4380</v>
+        <v>3780</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="80">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="4">
+        <v>3180</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="100">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2290</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="100">
+      <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="4">
-        <v>3780</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="80">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="4">
-        <v>3180</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>80</v>
+      <c r="E14" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="F14" s="4">
-        <v>3680</v>
+        <v>1780</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="120">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F15" s="4">
-        <v>2290</v>
+        <v>1895</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="100">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F16" s="4">
-        <v>1780</v>
+        <v>4990</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="120">
+        <v>20</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F17" s="4">
-        <v>1895</v>
+        <v>14900</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="100">
+        <v>174</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F18" s="4">
-        <v>4990</v>
+        <v>899</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>105</v>
+        <v>174</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1480</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="4">
+        <v>34115</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="4">
+        <v>18884</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1380</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="4">
+        <v>59900</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3690</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="4">
+        <v>17778</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="4">
+        <v>11000</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="4">
+        <v>15000</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="4">
+        <v>28999</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J6" r:id="rId1" xr:uid="{21FAFC62-A965-8342-8E75-BBE94790F32A}"/>
-    <hyperlink ref="J7" r:id="rId2" xr:uid="{2470012C-9D0E-4C49-9C67-762DC5606EBF}"/>
+    <hyperlink ref="J6" r:id="rId1" xr:uid="{2470012C-9D0E-4C49-9C67-762DC5606EBF}"/>
+    <hyperlink ref="J17" r:id="rId2" xr:uid="{6E6D952E-05D5-B049-91E7-FE8813380845}"/>
+    <hyperlink ref="J18" r:id="rId3" xr:uid="{A39A87A1-CDE8-C14B-855D-31D0BCEA48A8}"/>
+    <hyperlink ref="J19" r:id="rId4" xr:uid="{186B6A11-9633-DB42-B7D4-90C3D19D5520}"/>
+    <hyperlink ref="J20" r:id="rId5" xr:uid="{A1A36C82-8C9A-B146-8E5D-73DB6B5E0865}"/>
+    <hyperlink ref="J22" r:id="rId6" xr:uid="{59A4505C-62D8-234D-B74B-734C23F04263}"/>
+    <hyperlink ref="J23" r:id="rId7" xr:uid="{E0CB828D-B3F5-A941-8548-82F7708CF249}"/>
+    <hyperlink ref="J24" r:id="rId8" xr:uid="{72E6BAEE-058C-004F-BD3F-DD963A2E2190}"/>
+    <hyperlink ref="J25" r:id="rId9" xr:uid="{3192BB36-3A8F-AD49-92A2-6679D553C5A2}"/>
+    <hyperlink ref="J26" r:id="rId10" location="v=solo_5_black" xr:uid="{315613A7-64D7-5443-9AEB-B2010447A0BB}"/>
+    <hyperlink ref="J27" r:id="rId11" location="v=solo_5_black" xr:uid="{F5B2D977-9359-0D48-83F1-7595D6592E2D}"/>
+    <hyperlink ref="J28" r:id="rId12" location="v=solo_5_black" xr:uid="{0C189E45-3FD4-B44C-B745-DCB9CC0DA285}"/>
+    <hyperlink ref="J29" r:id="rId13" xr:uid="{198319C4-51A3-3049-B226-8930B0EE9526}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
